--- a/RFunctionsList.xlsx
+++ b/RFunctionsList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cimacint\Documents\GitHub\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A16813-101B-411B-9A57-A271E4119C93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4180555F-A612-4FFD-8CD2-B2ED9D0A2577}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11890" windowHeight="3700" xr2:uid="{8E6378E7-FAE4-4516-869B-C0F22692A9A3}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="175">
   <si>
     <t>category</t>
   </si>
@@ -389,9 +389,6 @@
     <t>dim()</t>
   </si>
   <si>
-    <t>dimensions of data</t>
-  </si>
-  <si>
     <t>length()</t>
   </si>
   <si>
@@ -474,6 +471,90 @@
   </si>
   <si>
     <t>attach new row to data frame</t>
+  </si>
+  <si>
+    <t>dimensions of data (rows x columns)</t>
+  </si>
+  <si>
+    <t>str(df)</t>
+  </si>
+  <si>
+    <t>structure</t>
+  </si>
+  <si>
+    <t>dplyr</t>
+  </si>
+  <si>
+    <t>glimpse(df)</t>
+  </si>
+  <si>
+    <t>head(df,n=)</t>
+  </si>
+  <si>
+    <t>tail(df)</t>
+  </si>
+  <si>
+    <t>top 5 of dataset</t>
+  </si>
+  <si>
+    <t>bottom 5 of dataset</t>
+  </si>
+  <si>
+    <t>dfsummary(df)</t>
+  </si>
+  <si>
+    <t>summarytools</t>
+  </si>
+  <si>
+    <t>File - new - r script</t>
+  </si>
+  <si>
+    <t>saved with .R extension</t>
+  </si>
+  <si>
+    <t>Ctrl-Enter or Run</t>
+  </si>
+  <si>
+    <t>submit line(s) of code to console</t>
+  </si>
+  <si>
+    <t>tab key</t>
+  </si>
+  <si>
+    <t>will give suggestions of R commands</t>
+  </si>
+  <si>
+    <t>File - new - r notebook</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>colnames()</t>
+  </si>
+  <si>
+    <t>colnames(df)[1] &lt;- "varName"</t>
+  </si>
+  <si>
+    <t>factor</t>
+  </si>
+  <si>
+    <t>df$v &lt;- factor(df$v, ordered=T, levels=c("",""))</t>
+  </si>
+  <si>
+    <t>Hmisc</t>
+  </si>
+  <si>
+    <t>label()</t>
+  </si>
+  <si>
+    <t>add labels to variables in dataframe</t>
+  </si>
+  <si>
+    <t>change name of column in dataframe</t>
+  </si>
+  <si>
+    <t>convert factor to ordinal</t>
   </si>
 </sst>
 </file>
@@ -826,16 +907,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC675FC-D04C-427D-B8A3-11CDDDA4E18A}">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A67" sqref="A67:A69"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
@@ -1471,7 +1553,7 @@
         <v>118</v>
       </c>
       <c r="E54" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
@@ -1479,10 +1561,10 @@
         <v>61</v>
       </c>
       <c r="C55" t="s">
+        <v>119</v>
+      </c>
+      <c r="E55" t="s">
         <v>120</v>
-      </c>
-      <c r="E55" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
@@ -1490,10 +1572,10 @@
         <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E56" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
@@ -1501,10 +1583,10 @@
         <v>76</v>
       </c>
       <c r="C57" t="s">
+        <v>122</v>
+      </c>
+      <c r="E57" t="s">
         <v>123</v>
-      </c>
-      <c r="E57" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
@@ -1512,10 +1594,10 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
+        <v>124</v>
+      </c>
+      <c r="E58" t="s">
         <v>125</v>
-      </c>
-      <c r="E58" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
@@ -1523,10 +1605,10 @@
         <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E59" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
@@ -1534,10 +1616,10 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
+        <v>127</v>
+      </c>
+      <c r="E60" t="s">
         <v>128</v>
-      </c>
-      <c r="E60" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
@@ -1545,10 +1627,10 @@
         <v>61</v>
       </c>
       <c r="C61" t="s">
+        <v>129</v>
+      </c>
+      <c r="E61" t="s">
         <v>130</v>
-      </c>
-      <c r="E61" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
@@ -1556,10 +1638,10 @@
         <v>61</v>
       </c>
       <c r="C62" t="s">
+        <v>131</v>
+      </c>
+      <c r="E62" t="s">
         <v>132</v>
-      </c>
-      <c r="E62" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
@@ -1567,10 +1649,10 @@
         <v>61</v>
       </c>
       <c r="C63" t="s">
+        <v>133</v>
+      </c>
+      <c r="E63" t="s">
         <v>134</v>
-      </c>
-      <c r="E63" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
@@ -1578,10 +1660,10 @@
         <v>61</v>
       </c>
       <c r="C64" t="s">
+        <v>135</v>
+      </c>
+      <c r="E64" t="s">
         <v>136</v>
-      </c>
-      <c r="E64" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
@@ -1589,10 +1671,10 @@
         <v>61</v>
       </c>
       <c r="C65" t="s">
+        <v>137</v>
+      </c>
+      <c r="E65" t="s">
         <v>138</v>
-      </c>
-      <c r="E65" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
@@ -1600,10 +1682,10 @@
         <v>61</v>
       </c>
       <c r="C66" t="s">
+        <v>139</v>
+      </c>
+      <c r="E66" t="s">
         <v>140</v>
-      </c>
-      <c r="E66" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
@@ -1611,10 +1693,10 @@
         <v>61</v>
       </c>
       <c r="C67" t="s">
+        <v>141</v>
+      </c>
+      <c r="E67" t="s">
         <v>142</v>
-      </c>
-      <c r="E67" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
@@ -1622,10 +1704,10 @@
         <v>61</v>
       </c>
       <c r="C68" t="s">
+        <v>143</v>
+      </c>
+      <c r="E68" t="s">
         <v>144</v>
-      </c>
-      <c r="E68" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
@@ -1633,10 +1715,154 @@
         <v>61</v>
       </c>
       <c r="C69" t="s">
+        <v>145</v>
+      </c>
+      <c r="E69" t="s">
         <v>146</v>
       </c>
-      <c r="E69" t="s">
-        <v>147</v>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" t="s">
+        <v>148</v>
+      </c>
+      <c r="E70" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>61</v>
+      </c>
+      <c r="B71" t="s">
+        <v>150</v>
+      </c>
+      <c r="C71" t="s">
+        <v>151</v>
+      </c>
+      <c r="E71" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>61</v>
+      </c>
+      <c r="C72" t="s">
+        <v>152</v>
+      </c>
+      <c r="E72" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>61</v>
+      </c>
+      <c r="C73" t="s">
+        <v>153</v>
+      </c>
+      <c r="E73" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" t="s">
+        <v>157</v>
+      </c>
+      <c r="C74" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>165</v>
+      </c>
+      <c r="B75" t="s">
+        <v>99</v>
+      </c>
+      <c r="C75" t="s">
+        <v>158</v>
+      </c>
+      <c r="E75" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>31</v>
+      </c>
+      <c r="B76" t="s">
+        <v>99</v>
+      </c>
+      <c r="C76" t="s">
+        <v>160</v>
+      </c>
+      <c r="E76" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>31</v>
+      </c>
+      <c r="B77" t="s">
+        <v>99</v>
+      </c>
+      <c r="C77" t="s">
+        <v>162</v>
+      </c>
+      <c r="E77" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>165</v>
+      </c>
+      <c r="B78" t="s">
+        <v>99</v>
+      </c>
+      <c r="C78" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C79" t="s">
+        <v>166</v>
+      </c>
+      <c r="D79" t="s">
+        <v>167</v>
+      </c>
+      <c r="E79" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C80" t="s">
+        <v>168</v>
+      </c>
+      <c r="D80" t="s">
+        <v>169</v>
+      </c>
+      <c r="E80" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B81" t="s">
+        <v>170</v>
+      </c>
+      <c r="C81" t="s">
+        <v>171</v>
+      </c>
+      <c r="E81" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
